--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_18_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_18_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33843.38977940268</v>
+        <v>6734834.566101133</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33843.38977940268</v>
+        <v>6734834.566101133</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21795.21913667091</v>
+        <v>1457922.755981679</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21795.21913667091</v>
+        <v>1457922.755981679</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1419654588.047775</v>
+        <v>57705885.15426135</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12956.92274374474</v>
+        <v>1392863.857984609</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24537.98199305453</v>
+        <v>2557787.620292258</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36119.04124236429</v>
+        <v>3722711.38259991</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48305.90429421287</v>
+        <v>4848878.560188835</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60492.76734606142</v>
+        <v>5975045.737777759</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>72679.63039790996</v>
+        <v>7101212.915366681</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84866.49344975852</v>
+        <v>8227380.0929556</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>97053.35650160705</v>
+        <v>9353547.270544518</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>109023.9936708417</v>
+        <v>10479192.84535081</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>121026.7035673491</v>
+        <v>11611220.89288437</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>133029.4134638565</v>
+        <v>12743248.94041794</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>145032.1233603639</v>
+        <v>13875276.98795152</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>157034.8332568713</v>
+        <v>15007305.0354851</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>169626.6033161291</v>
+        <v>16081643.83666816</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>182218.3733753869</v>
+        <v>17155982.63785123</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>276</v>
@@ -27055,16 +27055,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>288.0000000000559</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
